--- a/imageIndex.xlsx
+++ b/imageIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donald\Desktop\UF\Sunglasses\ActiveLearningTrust\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54989706-65DD-4B26-B49A-AF0E70BE59B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E788389A-590B-43BB-9440-B2E1BAFD453F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20190" yWindow="3765" windowWidth="17280" windowHeight="8970" xr2:uid="{2477838A-6A34-4E8C-984D-BD01E5B60F51}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2477838A-6A34-4E8C-984D-BD01E5B60F51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="25">
   <si>
     <t>Index</t>
   </si>
@@ -92,12 +92,27 @@
   <si>
     <t>WR(S)</t>
   </si>
+  <si>
+    <t>Prediction</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Face</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>No Faces</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +124,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,9 +155,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,15 +475,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999A4B6F-04BF-403D-858B-408638E8E87F}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="16" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -514,8 +541,14 @@
       <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -570,8 +603,14 @@
       <c r="R2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,8 +665,14 @@
       <c r="R3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -662,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -682,8 +727,14 @@
       <c r="R4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -738,8 +789,14 @@
       <c r="R5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -794,8 +851,14 @@
       <c r="R6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -805,7 +868,7 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E7">
@@ -850,8 +913,14 @@
       <c r="R7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -906,8 +975,14 @@
       <c r="R8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>6</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -962,8 +1037,14 @@
       <c r="R9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>7</v>
+      </c>
+      <c r="U9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1018,8 +1099,14 @@
       <c r="R10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>8</v>
+      </c>
+      <c r="U10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1074,8 +1161,14 @@
       <c r="R11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>9</v>
+      </c>
+      <c r="U11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1130,8 +1223,14 @@
       <c r="R12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>10</v>
+      </c>
+      <c r="U12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1186,8 +1285,14 @@
       <c r="R13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>11</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1242,8 +1347,14 @@
       <c r="R14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>12</v>
+      </c>
+      <c r="U14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1298,8 +1409,14 @@
       <c r="R15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>13</v>
+      </c>
+      <c r="U15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1354,8 +1471,14 @@
       <c r="R16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <v>14</v>
+      </c>
+      <c r="U16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1410,8 +1533,14 @@
       <c r="R17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <v>15</v>
+      </c>
+      <c r="U17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1466,8 +1595,14 @@
       <c r="R18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <v>16</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1522,8 +1657,14 @@
       <c r="R19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <v>17</v>
+      </c>
+      <c r="U19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1578,8 +1719,14 @@
       <c r="R20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <v>18</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1634,8 +1781,14 @@
       <c r="R21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <v>19</v>
+      </c>
+      <c r="U21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1691,7 +1844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1747,7 +1900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1803,7 +1956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1859,7 +2012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1915,7 +2068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1971,7 +2124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1987,7 +2140,7 @@
       <c r="E28">
         <v>24</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G28">
@@ -2027,7 +2180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>25</v>
       </c>
@@ -2083,7 +2236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26</v>
       </c>
@@ -2139,7 +2292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2195,7 +2348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2211,7 +2364,7 @@
       <c r="E32">
         <v>28</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G32">
